--- a/in-progress/Mortezaei_2011_CompSciTech/SUBMISSION/S16/S16_lossmod.xlsx
+++ b/in-progress/Mortezaei_2011_CompSciTech/SUBMISSION/S16/S16_lossmod.xlsx
@@ -14,156 +14,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
   <si>
     <t>Frequency (Hz)</t>
   </si>
   <si>
-    <t>Y</t>
-  </si>
-  <si>
-    <t>0.01598868866705084</t>
-  </si>
-  <si>
-    <t>0.024789156228736023</t>
-  </si>
-  <si>
-    <t>0.037824199565453014</t>
-  </si>
-  <si>
-    <t>0.05959667037863328</t>
-  </si>
-  <si>
-    <t>0.09396703748419596</t>
-  </si>
-  <si>
-    <t>0.14814633308103342</t>
-  </si>
-  <si>
-    <t>0.22604557850923668</t>
-  </si>
-  <si>
-    <t>0.3563698700612645</t>
-  </si>
-  <si>
-    <t>0.5619323174504275</t>
-  </si>
-  <si>
-    <t>0.8576337949740367</t>
-  </si>
-  <si>
-    <t>1.3528772795977646</t>
-  </si>
-  <si>
-    <t>2.134516700031542</t>
-  </si>
-  <si>
-    <t>3.366982291205003</t>
-  </si>
-  <si>
-    <t>5.226282015108646</t>
-  </si>
-  <si>
-    <t>8.383282399643065</t>
-  </si>
-  <si>
-    <t>13.230313114422568</t>
-  </si>
-  <si>
-    <t>20.21217455763727</t>
-  </si>
-  <si>
-    <t>32.433139295384166</t>
-  </si>
-  <si>
-    <t>50.37255698958191</t>
-  </si>
-  <si>
-    <t>79.52068968181277</t>
-  </si>
-  <si>
-    <t>123.50476165695282</t>
-  </si>
-  <si>
-    <t>191.817075694067</t>
-  </si>
-  <si>
-    <t>302.9513667500208</t>
-  </si>
-  <si>
-    <t>470.84416154229893</t>
-  </si>
-  <si>
-    <t>163.54553264642107</t>
-  </si>
-  <si>
-    <t>256.1063837659723</t>
-  </si>
-  <si>
-    <t>375.21527834327094</t>
-  </si>
-  <si>
-    <t>610.8875040620434</t>
-  </si>
-  <si>
-    <t>870.2500576101459</t>
-  </si>
-  <si>
-    <t>1260.8807771654733</t>
-  </si>
-  <si>
-    <t>1849.6550206335353</t>
-  </si>
-  <si>
-    <t>2692.3062857795544</t>
-  </si>
-  <si>
-    <t>3785.5583599619627</t>
-  </si>
-  <si>
-    <t>5282.496126736805</t>
-  </si>
-  <si>
-    <t>6877.784428316309</t>
-  </si>
-  <si>
-    <t>8625.125077098926</t>
-  </si>
-  <si>
-    <t>11305.996862778853</t>
-  </si>
-  <si>
-    <t>14165.824740403432</t>
-  </si>
-  <si>
-    <t>17077.85974015125</t>
-  </si>
-  <si>
-    <t>20353.415096932058</t>
-  </si>
-  <si>
-    <t>23524.806808191923</t>
-  </si>
-  <si>
-    <t>26481.308871769797</t>
-  </si>
-  <si>
-    <t>29659.90751287924</t>
-  </si>
-  <si>
-    <t>33367.72200272296</t>
-  </si>
-  <si>
-    <t>37396.86573531361</t>
-  </si>
-  <si>
-    <t>41912.52752318392</t>
-  </si>
-  <si>
-    <t>43161.35725152205</t>
-  </si>
-  <si>
-    <t>42336.71445737912</t>
+    <t>Loss modulus (Pa)</t>
   </si>
 </sst>
 </file>
@@ -536,195 +392,195 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" t="s">
-        <v>2</v>
-      </c>
-      <c r="B2" t="s">
-        <v>26</v>
+      <c r="A2">
+        <v>0.01598868866705084</v>
+      </c>
+      <c r="B2">
+        <v>163.5455326464211</v>
       </c>
     </row>
     <row r="3" spans="1:2">
-      <c r="A3" t="s">
-        <v>3</v>
-      </c>
-      <c r="B3" t="s">
-        <v>27</v>
+      <c r="A3">
+        <v>0.02478915622873602</v>
+      </c>
+      <c r="B3">
+        <v>256.1063837659723</v>
       </c>
     </row>
     <row r="4" spans="1:2">
-      <c r="A4" t="s">
-        <v>4</v>
-      </c>
-      <c r="B4" t="s">
-        <v>28</v>
+      <c r="A4">
+        <v>0.03782419956545301</v>
+      </c>
+      <c r="B4">
+        <v>375.2152783432709</v>
       </c>
     </row>
     <row r="5" spans="1:2">
-      <c r="A5" t="s">
-        <v>5</v>
-      </c>
-      <c r="B5" t="s">
-        <v>29</v>
+      <c r="A5">
+        <v>0.05959667037863328</v>
+      </c>
+      <c r="B5">
+        <v>610.8875040620434</v>
       </c>
     </row>
     <row r="6" spans="1:2">
-      <c r="A6" t="s">
-        <v>6</v>
-      </c>
-      <c r="B6" t="s">
-        <v>30</v>
+      <c r="A6">
+        <v>0.09396703748419596</v>
+      </c>
+      <c r="B6">
+        <v>870.2500576101459</v>
       </c>
     </row>
     <row r="7" spans="1:2">
-      <c r="A7" t="s">
-        <v>7</v>
-      </c>
-      <c r="B7" t="s">
-        <v>31</v>
+      <c r="A7">
+        <v>0.1481463330810334</v>
+      </c>
+      <c r="B7">
+        <v>1260.880777165473</v>
       </c>
     </row>
     <row r="8" spans="1:2">
-      <c r="A8" t="s">
-        <v>8</v>
-      </c>
-      <c r="B8" t="s">
-        <v>32</v>
+      <c r="A8">
+        <v>0.2260455785092367</v>
+      </c>
+      <c r="B8">
+        <v>1849.655020633535</v>
       </c>
     </row>
     <row r="9" spans="1:2">
-      <c r="A9" t="s">
-        <v>9</v>
-      </c>
-      <c r="B9" t="s">
-        <v>33</v>
+      <c r="A9">
+        <v>0.3563698700612645</v>
+      </c>
+      <c r="B9">
+        <v>2692.306285779554</v>
       </c>
     </row>
     <row r="10" spans="1:2">
-      <c r="A10" t="s">
-        <v>10</v>
-      </c>
-      <c r="B10" t="s">
-        <v>34</v>
+      <c r="A10">
+        <v>0.5619323174504275</v>
+      </c>
+      <c r="B10">
+        <v>3785.558359961963</v>
       </c>
     </row>
     <row r="11" spans="1:2">
-      <c r="A11" t="s">
-        <v>11</v>
-      </c>
-      <c r="B11" t="s">
-        <v>35</v>
+      <c r="A11">
+        <v>0.8576337949740367</v>
+      </c>
+      <c r="B11">
+        <v>5282.496126736805</v>
       </c>
     </row>
     <row r="12" spans="1:2">
-      <c r="A12" t="s">
-        <v>12</v>
-      </c>
-      <c r="B12" t="s">
-        <v>36</v>
+      <c r="A12">
+        <v>1.352877279597765</v>
+      </c>
+      <c r="B12">
+        <v>6877.784428316309</v>
       </c>
     </row>
     <row r="13" spans="1:2">
-      <c r="A13" t="s">
-        <v>13</v>
-      </c>
-      <c r="B13" t="s">
-        <v>37</v>
+      <c r="A13">
+        <v>2.134516700031542</v>
+      </c>
+      <c r="B13">
+        <v>8625.125077098926</v>
       </c>
     </row>
     <row r="14" spans="1:2">
-      <c r="A14" t="s">
-        <v>14</v>
-      </c>
-      <c r="B14" t="s">
-        <v>38</v>
+      <c r="A14">
+        <v>3.366982291205003</v>
+      </c>
+      <c r="B14">
+        <v>11305.99686277885</v>
       </c>
     </row>
     <row r="15" spans="1:2">
-      <c r="A15" t="s">
-        <v>15</v>
-      </c>
-      <c r="B15" t="s">
-        <v>39</v>
+      <c r="A15">
+        <v>5.226282015108646</v>
+      </c>
+      <c r="B15">
+        <v>14165.82474040343</v>
       </c>
     </row>
     <row r="16" spans="1:2">
-      <c r="A16" t="s">
-        <v>16</v>
-      </c>
-      <c r="B16" t="s">
-        <v>40</v>
+      <c r="A16">
+        <v>8.383282399643065</v>
+      </c>
+      <c r="B16">
+        <v>17077.85974015125</v>
       </c>
     </row>
     <row r="17" spans="1:2">
-      <c r="A17" t="s">
-        <v>17</v>
-      </c>
-      <c r="B17" t="s">
-        <v>41</v>
+      <c r="A17">
+        <v>13.23031311442257</v>
+      </c>
+      <c r="B17">
+        <v>20353.41509693206</v>
       </c>
     </row>
     <row r="18" spans="1:2">
-      <c r="A18" t="s">
-        <v>18</v>
-      </c>
-      <c r="B18" t="s">
-        <v>42</v>
+      <c r="A18">
+        <v>20.21217455763727</v>
+      </c>
+      <c r="B18">
+        <v>23524.80680819192</v>
       </c>
     </row>
     <row r="19" spans="1:2">
-      <c r="A19" t="s">
-        <v>19</v>
-      </c>
-      <c r="B19" t="s">
-        <v>43</v>
+      <c r="A19">
+        <v>32.43313929538417</v>
+      </c>
+      <c r="B19">
+        <v>26481.3088717698</v>
       </c>
     </row>
     <row r="20" spans="1:2">
-      <c r="A20" t="s">
-        <v>20</v>
-      </c>
-      <c r="B20" t="s">
-        <v>44</v>
+      <c r="A20">
+        <v>50.37255698958191</v>
+      </c>
+      <c r="B20">
+        <v>29659.90751287924</v>
       </c>
     </row>
     <row r="21" spans="1:2">
-      <c r="A21" t="s">
-        <v>21</v>
-      </c>
-      <c r="B21" t="s">
-        <v>45</v>
+      <c r="A21">
+        <v>79.52068968181277</v>
+      </c>
+      <c r="B21">
+        <v>33367.72200272296</v>
       </c>
     </row>
     <row r="22" spans="1:2">
-      <c r="A22" t="s">
-        <v>22</v>
-      </c>
-      <c r="B22" t="s">
-        <v>46</v>
+      <c r="A22">
+        <v>123.5047616569528</v>
+      </c>
+      <c r="B22">
+        <v>37396.86573531361</v>
       </c>
     </row>
     <row r="23" spans="1:2">
-      <c r="A23" t="s">
-        <v>23</v>
-      </c>
-      <c r="B23" t="s">
-        <v>47</v>
+      <c r="A23">
+        <v>191.817075694067</v>
+      </c>
+      <c r="B23">
+        <v>41912.52752318392</v>
       </c>
     </row>
     <row r="24" spans="1:2">
-      <c r="A24" t="s">
-        <v>24</v>
-      </c>
-      <c r="B24" t="s">
-        <v>48</v>
+      <c r="A24">
+        <v>302.9513667500208</v>
+      </c>
+      <c r="B24">
+        <v>43161.35725152205</v>
       </c>
     </row>
     <row r="25" spans="1:2">
-      <c r="A25" t="s">
-        <v>25</v>
-      </c>
-      <c r="B25" t="s">
-        <v>49</v>
+      <c r="A25">
+        <v>470.8441615422989</v>
+      </c>
+      <c r="B25">
+        <v>42336.71445737912</v>
       </c>
     </row>
   </sheetData>
